--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_35.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3455457.062479522</v>
+        <v>3452439.472078586</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.94059021314987</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>358.28587912586</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>163.8608514409109</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>15.91242278797893</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,13 +905,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>62.71093001209227</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>84.93489990391507</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>194.3185979147718</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>125.8721928563319</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>1.332975795529679</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>268.8321801801047</v>
       </c>
     </row>
     <row r="9">
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>114.9503771951926</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>83.58354151325317</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206831</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896916</v>
+        <v>411.9645167896907</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113178</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527404</v>
+        <v>81.77913505274066</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>14.69115661517873</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>38.38968782059668</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896922</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274066</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,10 +1658,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498009</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>56.88838968181823</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,19 +1813,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>59.77945773664969</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710084</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113178</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274066</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="18">
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>127.4321567831321</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>93.87916681139897</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2239,25 +2239,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>98.0781944519799</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>55.21533678566915</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2479,13 +2479,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>8.627084658457184</v>
       </c>
       <c r="F25" t="n">
-        <v>3.633341602776451</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2536,13 +2536,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2713,22 +2713,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>120.8530343211901</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>109.7997655438527</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2843,7 +2843,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2950,22 +2950,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>76.92371143670185</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3089,7 +3089,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,25 +3232,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>25.06391575501717</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>101.0041688483414</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722602</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3281,10 +3281,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113175</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498011</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V35" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3424,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>59.7794577366496</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3481,13 +3481,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>209.4552226741778</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>133.5360696040803</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>184.6017293039191</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3898,13 +3898,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>73.72928644141938</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>33.35146980185879</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>23.9968682569051</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>104.6354350586182</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1595.875667274027</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>1595.875667274027</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D2" t="n">
-        <v>1595.875667274027</v>
+        <v>951.4492202526051</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>565.6609676543608</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>154.6750628647532</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>140.7516588033441</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>140.7516588033441</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2344.380435748108</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1982.475507338148</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1982.475507338148</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>562.6129726499586</v>
+        <v>70.0161361516563</v>
       </c>
       <c r="C4" t="n">
-        <v>393.6767897220517</v>
+        <v>70.0161361516563</v>
       </c>
       <c r="D4" t="n">
-        <v>393.6767897220517</v>
+        <v>70.0161361516563</v>
       </c>
       <c r="E4" t="n">
-        <v>393.6767897220517</v>
+        <v>70.0161361516563</v>
       </c>
       <c r="F4" t="n">
-        <v>393.6767897220517</v>
+        <v>70.0161361516563</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>70.0161361516563</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>70.0161361516563</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>70.0161361516563</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1422.14692331494</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="C5" t="n">
-        <v>1422.14692331494</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4595,22 +4595,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2402.598540113298</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2402.598540113298</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>2071.535652769727</v>
       </c>
       <c r="W5" t="n">
-        <v>1894.539591564834</v>
+        <v>1718.766997499613</v>
       </c>
       <c r="X5" t="n">
-        <v>1894.539591564834</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="Y5" t="n">
-        <v>1808.746763379062</v>
+        <v>1345.301239238533</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4650,37 +4650,37 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>354.283994459117</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>99.59950625323012</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>372.9958041606071</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1920.409918978289</v>
+        <v>1686.741202187451</v>
       </c>
       <c r="C8" t="n">
-        <v>1551.447402037878</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D8" t="n">
-        <v>1193.181703431127</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>807.393450832883</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>396.4075460432754</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>382.4841419818663</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>55.28942201786919</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018223</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X8" t="n">
-        <v>2697.149091018223</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="Y8" t="n">
-        <v>2307.009759042411</v>
+        <v>1686.741202187451</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323012</v>
+        <v>361.80799380017</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>361.80799380017</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036446</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>582.6005729437002</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>582.6005729437002</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>582.6005729437002</v>
       </c>
       <c r="U10" t="n">
-        <v>643.7011644960776</v>
+        <v>582.6005729437002</v>
       </c>
       <c r="V10" t="n">
-        <v>389.0166762901907</v>
+        <v>582.6005729437002</v>
       </c>
       <c r="W10" t="n">
-        <v>99.59950625323012</v>
+        <v>582.6005729437002</v>
       </c>
       <c r="X10" t="n">
-        <v>99.59950625323012</v>
+        <v>582.6005729437002</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323012</v>
+        <v>361.80799380017</v>
       </c>
     </row>
     <row r="11">
@@ -5018,49 +5018,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
         <v>904.3190116155879</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I11" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514078</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014293</v>
@@ -5072,16 +5072,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5118,19 +5118,19 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>242.5343297994525</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>391.6040140015124</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>638.3691419079764</v>
       </c>
       <c r="M12" t="n">
-        <v>1016.813592216476</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N12" t="n">
-        <v>1346.676219880508</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O12" t="n">
         <v>2016.139981183168</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>560.9563154684962</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="C13" t="n">
-        <v>392.0201325405893</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="D13" t="n">
-        <v>392.0201325405893</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028587</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1373.001614983184</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1373.001614983184</v>
       </c>
       <c r="U13" t="n">
-        <v>1036.433382817913</v>
+        <v>1083.872976196742</v>
       </c>
       <c r="V13" t="n">
-        <v>781.7488946120263</v>
+        <v>1083.872976196742</v>
       </c>
       <c r="W13" t="n">
-        <v>781.7488946120263</v>
+        <v>1083.872976196742</v>
       </c>
       <c r="X13" t="n">
-        <v>781.7488946120263</v>
+        <v>855.8834252987247</v>
       </c>
       <c r="Y13" t="n">
-        <v>560.9563154684962</v>
+        <v>855.8834252987247</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,34 +5294,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5343,34 +5343,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>242.5343297994525</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>391.6040140015124</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>638.3691419079764</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028583</v>
+        <v>434.3900243991422</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028583</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028583</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028583</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028583</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,10 +5440,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5461,25 +5461,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>964.135741824786</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383442</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>844.0280401273993</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>844.0280401273993</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028583</v>
+        <v>616.038489229382</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028583</v>
+        <v>616.038489229382</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5489,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515098</v>
@@ -5528,7 +5528,7 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
         <v>4454.632848899128</v>
@@ -5540,25 +5540,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E18" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250804</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>2649.889045452864</v>
       </c>
       <c r="L18" t="n">
-        <v>1206.718781115523</v>
+        <v>2896.654173359328</v>
       </c>
       <c r="M18" t="n">
-        <v>1514.038914395485</v>
+        <v>3203.974306639289</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059518</v>
+        <v>3973.880983602626</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>4253.421048821323</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>4773.72167055707</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R18" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S18" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T18" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U18" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W18" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X18" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y18" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="19">
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>225.9364417462779</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>225.9364417462779</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>225.9364417462779</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>225.9364417462779</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>225.9364417462779</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028587</v>
@@ -5707,16 +5707,16 @@
         <v>964.135741824786</v>
       </c>
       <c r="V19" t="n">
-        <v>709.4512536188992</v>
+        <v>964.135741824786</v>
       </c>
       <c r="W19" t="n">
-        <v>420.0340835819385</v>
+        <v>674.7185717878253</v>
       </c>
       <c r="X19" t="n">
-        <v>192.0445326839212</v>
+        <v>446.729020889808</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>225.9364417462779</v>
       </c>
     </row>
     <row r="20">
@@ -5729,40 +5729,40 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643324</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E21" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>2500.819361250804</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>2649.889045452864</v>
       </c>
       <c r="L21" t="n">
-        <v>901.674922584592</v>
+        <v>3263.786115209752</v>
       </c>
       <c r="M21" t="n">
-        <v>1332.091733170013</v>
+        <v>3571.106248489714</v>
       </c>
       <c r="N21" t="n">
-        <v>1661.954360834046</v>
+        <v>3900.968876153747</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>4558.06917767756</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>4763.09165845977</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>4850.224560916993</v>
       </c>
       <c r="R21" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S21" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T21" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U21" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W21" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X21" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y21" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>247.6350999123426</v>
+        <v>4206.132591937266</v>
       </c>
       <c r="C22" t="n">
-        <v>247.6350999123426</v>
+        <v>4037.196409009358</v>
       </c>
       <c r="D22" t="n">
-        <v>247.6350999123426</v>
+        <v>4037.196409009358</v>
       </c>
       <c r="E22" t="n">
-        <v>247.6350999123426</v>
+        <v>3889.283315426965</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123426</v>
+        <v>3889.283315426965</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>3721.107993746786</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>4650.71058629129</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>4426.925171080796</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>4426.925171080796</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>4426.925171080796</v>
       </c>
       <c r="W22" t="n">
-        <v>531.3977182706318</v>
+        <v>4426.925171080796</v>
       </c>
       <c r="X22" t="n">
-        <v>303.4081673726145</v>
+        <v>4426.925171080796</v>
       </c>
       <c r="Y22" t="n">
-        <v>247.6350999123426</v>
+        <v>4206.132591937266</v>
       </c>
     </row>
     <row r="23">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>2375.989236263799</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>2525.058920465859</v>
       </c>
       <c r="L24" t="n">
-        <v>1288.32563221405</v>
+        <v>3138.955990222747</v>
       </c>
       <c r="M24" t="n">
-        <v>1722.015429253975</v>
+        <v>3907.324136615209</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>4237.186764279241</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>4568.69918977486</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>4773.72167055707</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S24" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T24" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U24" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W24" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X24" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y24" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="25">
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>100.8871334832924</v>
+        <v>256.0479578003561</v>
       </c>
       <c r="C25" t="n">
-        <v>100.8871334832924</v>
+        <v>256.0479578003561</v>
       </c>
       <c r="D25" t="n">
-        <v>100.8871334832924</v>
+        <v>105.9313183880204</v>
       </c>
       <c r="E25" t="n">
-        <v>100.8871334832924</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028587</v>
@@ -6175,22 +6175,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609664</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550796</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W25" t="n">
-        <v>731.3177283550796</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X25" t="n">
-        <v>503.3281774570622</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y25" t="n">
-        <v>282.5355983135321</v>
+        <v>437.6964226305959</v>
       </c>
     </row>
     <row r="26">
@@ -6206,25 +6206,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514082</v>
@@ -6236,7 +6236,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6309,22 +6309,22 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M27" t="n">
-        <v>1302.911127126629</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>330.8254548799445</v>
+        <v>4206.132591937264</v>
       </c>
       <c r="C28" t="n">
-        <v>330.8254548799445</v>
+        <v>4037.196409009357</v>
       </c>
       <c r="D28" t="n">
-        <v>330.8254548799445</v>
+        <v>4037.196409009357</v>
       </c>
       <c r="E28" t="n">
-        <v>208.7516828383384</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="F28" t="n">
-        <v>208.7516828383384</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T28" t="n">
-        <v>1164.055751909234</v>
+        <v>4749.945718929593</v>
       </c>
       <c r="U28" t="n">
-        <v>874.927113122792</v>
+        <v>4460.817080143151</v>
       </c>
       <c r="V28" t="n">
-        <v>620.2426249169051</v>
+        <v>4206.132591937264</v>
       </c>
       <c r="W28" t="n">
-        <v>330.8254548799445</v>
+        <v>4206.132591937264</v>
       </c>
       <c r="X28" t="n">
-        <v>330.8254548799445</v>
+        <v>4206.132591937264</v>
       </c>
       <c r="Y28" t="n">
-        <v>330.8254548799445</v>
+        <v>4206.132591937264</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6464,19 +6464,19 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899127</v>
@@ -6497,16 +6497,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6546,16 +6546,16 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M30" t="n">
-        <v>1208.995055864554</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N30" t="n">
-        <v>1538.857683528586</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
         <v>2536.440602918915</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>4073.312626376942</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>3904.376443449035</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>3904.376443449035</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>3756.463349866642</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598086</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>4371.805924143403</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>4371.805924143403</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>4294.105205520472</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>4294.105205520472</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>4073.312626376942</v>
       </c>
     </row>
     <row r="32">
@@ -6698,13 +6698,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6734,7 +6734,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
@@ -6777,25 +6777,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>816.7950850315608</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M33" t="n">
-        <v>1124.115218311523</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N33" t="n">
-        <v>1453.977845975555</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6880,28 +6880,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.787631771461</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V34" t="n">
-        <v>955.1031435655738</v>
+        <v>709.4512536188992</v>
       </c>
       <c r="W34" t="n">
-        <v>929.7860569443443</v>
+        <v>420.0340835819385</v>
       </c>
       <c r="X34" t="n">
-        <v>929.7860569443443</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y34" t="n">
-        <v>708.9934778008142</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6917,28 +6917,28 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6947,7 +6947,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6974,10 +6974,10 @@
         <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>2391.668904819564</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>2540.738589021624</v>
       </c>
       <c r="L36" t="n">
-        <v>901.674922584592</v>
+        <v>2787.503716928088</v>
       </c>
       <c r="M36" t="n">
-        <v>1208.995055864554</v>
+        <v>3094.823850208049</v>
       </c>
       <c r="N36" t="n">
-        <v>1538.857683528586</v>
+        <v>3899.2354284722</v>
       </c>
       <c r="O36" t="n">
-        <v>2016.139981183168</v>
+        <v>4568.699189774859</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S36" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T36" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U36" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W36" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X36" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y36" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>208.7516828383384</v>
+        <v>157.6003821033663</v>
       </c>
       <c r="C37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7129,16 +7129,16 @@
         <v>675.0071030383442</v>
       </c>
       <c r="V37" t="n">
-        <v>420.3226148324574</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W37" t="n">
-        <v>208.7516828383384</v>
+        <v>385.5899330013836</v>
       </c>
       <c r="X37" t="n">
-        <v>208.7516828383384</v>
+        <v>157.6003821033663</v>
       </c>
       <c r="Y37" t="n">
-        <v>208.7516828383384</v>
+        <v>157.6003821033663</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7166,19 +7166,19 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7205,19 +7205,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3609.573402368731</v>
+        <v>526.9050513325897</v>
       </c>
       <c r="C40" t="n">
-        <v>3609.573402368731</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D40" t="n">
-        <v>3609.573402368731</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E40" t="n">
-        <v>3609.573402368731</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F40" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4749.779469576118</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>4563.313076339836</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U40" t="n">
-        <v>4563.313076339836</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V40" t="n">
-        <v>4308.628588133949</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W40" t="n">
-        <v>4019.211418096988</v>
+        <v>754.894602230607</v>
       </c>
       <c r="X40" t="n">
-        <v>3791.221867198971</v>
+        <v>526.9050513325897</v>
       </c>
       <c r="Y40" t="n">
-        <v>3791.221867198971</v>
+        <v>526.9050513325897</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7409,13 +7409,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7454,7 +7454,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7491,16 +7491,16 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M42" t="n">
-        <v>1302.911127126629</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O42" t="n">
         <v>2331.418122136705</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>714.6010158349783</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>545.6648329070714</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7591,28 +7591,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1424.442243849398</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1224.52223376495</v>
       </c>
       <c r="T43" t="n">
-        <v>964.135741824786</v>
+        <v>1224.52223376495</v>
       </c>
       <c r="U43" t="n">
-        <v>675.0071030383442</v>
+        <v>935.3935949785084</v>
       </c>
       <c r="V43" t="n">
-        <v>420.3226148324574</v>
+        <v>935.3935949785084</v>
       </c>
       <c r="W43" t="n">
-        <v>130.9054447954967</v>
+        <v>935.3935949785084</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>935.3935949785084</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>714.6010158349783</v>
       </c>
     </row>
     <row r="44">
@@ -7634,13 +7634,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7673,10 +7673,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7725,22 +7725,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P45" t="n">
         <v>2536.440602918915</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>990.7828679390639</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C46" t="n">
-        <v>821.846685011157</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D46" t="n">
-        <v>671.7300455988212</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E46" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7828,28 +7828,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1363.601906254167</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1139.816491043673</v>
       </c>
       <c r="U46" t="n">
-        <v>1393.223911912834</v>
+        <v>1139.816491043673</v>
       </c>
       <c r="V46" t="n">
-        <v>1393.223911912834</v>
+        <v>885.1320028377861</v>
       </c>
       <c r="W46" t="n">
-        <v>1393.223911912834</v>
+        <v>595.7148328008255</v>
       </c>
       <c r="X46" t="n">
-        <v>1393.223911912834</v>
+        <v>595.7148328008255</v>
       </c>
       <c r="Y46" t="n">
-        <v>1172.431332769303</v>
+        <v>595.7148328008255</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>275.0442842992665</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>104.8749102765748</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8775,13 +8775,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>176.7176547498451</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8942,7 +8942,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714817</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>104.8749102765748</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9015,13 +9015,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711655</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9243,25 +9243,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>444.4889386861653</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720745</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9486,13 +9486,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>124.3400780863228</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>381.3739760657741</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9656,10 +9656,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,22 +9714,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>127.6461250100647</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9957,16 +9957,16 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>41.75994765618367</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10194,19 +10194,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O30" t="n">
-        <v>199.7396287231153</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10425,28 +10425,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>159.0121003135239</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>52.49733361305226</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445217</v>
@@ -10662,25 +10662,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>15.8380490462279</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>199.7396287231153</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11139,19 +11139,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11315,7 +11315,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,25 +11373,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>50.6266194094361</v>
       </c>
       <c r="M45" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>183.2296533684245</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>247.8476645779807</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>110.3584314168096</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,19 +23701,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>192.3581855871783</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23902,7 +23902,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>39.0614116802455</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23947,7 +23947,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>124.7054865406958</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24127,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>99.84261553162335</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>163.3693165664257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,13 +24367,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>137.806877988112</v>
       </c>
       <c r="F25" t="n">
-        <v>141.7877064201548</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24415,7 +24415,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24601,22 +24601,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>25.58092832537908</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>111.7477955145366</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24838,22 +24838,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24886,25 +24886,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>209.5992868998891</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,25 +25120,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>261.4590825815739</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>124.7054865406958</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>107.4673633619782</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25330,7 +25330,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25369,13 +25369,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>77.0677756624132</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25546,25 +25546,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>33.71075149454751</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>36.94583175447019</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -25786,13 +25786,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25801,7 +25801,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25831,28 +25831,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>36.23506596237341</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>192.3581855871784</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,28 +26068,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>173.9239417266982</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>181.6019173399591</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>698558.730471854</v>
+        <v>698558.7304718539</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>698558.730471854</v>
+        <v>698558.7304718539</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>698558.730471854</v>
+        <v>698558.7304718539</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312477</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312477</v>
       </c>
       <c r="E2" t="n">
-        <v>684300.8545409903</v>
+        <v>684300.8545409901</v>
       </c>
       <c r="F2" t="n">
-        <v>684300.8545409904</v>
+        <v>684300.8545409905</v>
       </c>
       <c r="G2" t="n">
-        <v>684300.8545409899</v>
+        <v>684300.8545409907</v>
       </c>
       <c r="H2" t="n">
         <v>684300.8545409902</v>
       </c>
       <c r="I2" t="n">
+        <v>684300.8545409907</v>
+      </c>
+      <c r="J2" t="n">
+        <v>684300.8545409904</v>
+      </c>
+      <c r="K2" t="n">
+        <v>684300.8545409902</v>
+      </c>
+      <c r="L2" t="n">
         <v>684300.8545409903</v>
       </c>
-      <c r="J2" t="n">
-        <v>684300.8545409909</v>
-      </c>
-      <c r="K2" t="n">
-        <v>684300.8545409903</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>684300.8545409902</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>684300.8545409905</v>
+      </c>
+      <c r="O2" t="n">
         <v>684300.8545409904</v>
       </c>
-      <c r="N2" t="n">
-        <v>684300.8545409903</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>684300.8545409905</v>
-      </c>
-      <c r="P2" t="n">
-        <v>684300.8545409908</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.958831793065959e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.094354047381785e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
-        <v>156359.7437417554</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>14711.50065430943</v>
+        <v>15045.66962143915</v>
       </c>
       <c r="F4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143912</v>
       </c>
       <c r="G4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="I4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
-        <v>14711.50065430952</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="O4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="P4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
     </row>
     <row r="5">
@@ -26479,7 +26479,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26497,13 +26497,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-110775.1523884613</v>
+        <v>-111190.3668979288</v>
       </c>
       <c r="C6" t="n">
-        <v>479192.7268260831</v>
+        <v>478777.5123166157</v>
       </c>
       <c r="D6" t="n">
-        <v>479192.726826083</v>
+        <v>478777.5123166157</v>
       </c>
       <c r="E6" t="n">
-        <v>52441.9914610681</v>
+        <v>52107.82249393803</v>
       </c>
       <c r="F6" t="n">
-        <v>577602.0279379644</v>
+        <v>577267.8589708349</v>
       </c>
       <c r="G6" t="n">
-        <v>577602.0279379635</v>
+        <v>577267.858970835</v>
       </c>
       <c r="H6" t="n">
-        <v>577602.0279379641</v>
+        <v>577267.8589708345</v>
       </c>
       <c r="I6" t="n">
-        <v>577602.0279379642</v>
+        <v>577267.858970835</v>
       </c>
       <c r="J6" t="n">
-        <v>401178.808745372</v>
+        <v>400844.6397782417</v>
       </c>
       <c r="K6" t="n">
-        <v>577602.0279379642</v>
+        <v>577267.8589708345</v>
       </c>
       <c r="L6" t="n">
-        <v>577602.0279379641</v>
+        <v>577267.8589708346</v>
       </c>
       <c r="M6" t="n">
-        <v>442801.0127041271</v>
+        <v>442466.8437369973</v>
       </c>
       <c r="N6" t="n">
-        <v>577602.0279379643</v>
+        <v>577267.8589708349</v>
       </c>
       <c r="O6" t="n">
-        <v>577602.0279379643</v>
+        <v>577267.8589708348</v>
       </c>
       <c r="P6" t="n">
-        <v>577602.0279379647</v>
+        <v>577267.8589708349</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8.905468954859921e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27024,7 +27024,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>8.905468954859921e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27270,7 +27270,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>65.99072603171138</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>11.44522155260898</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.97112874102643</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>119.0531990043593</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,7 +27591,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,13 +27625,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>153.7373903455655</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>301.3030387521385</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,19 +27828,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>91.96327632720596</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>92.71246049576293</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>150.5983404493316</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27910,16 +27910,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>117.4057584759489</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,13 +28026,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>31.7148147849652</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,19 +28065,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>202.6983327287246</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28096,19 +28096,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-2.463673060345634e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-8.905468954859921e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.905468954859921e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-8.905468954859921e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-8.905468954859921e-14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-8.905468954859921e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-8.905468954859921e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-8.905468954859921e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-8.905468954859921e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-8.905468954859921e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-8.905468954859921e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-8.905468954859921e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -29983,16 +29983,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-8.905468954859921e-14</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>-8.905468954859921e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-8.905468954859921e-14</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1.534772309241816e-12</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30004,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-8.905468954859921e-14</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-8.905468954859921e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-8.905468954859921e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>-8.905468954859921e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>-8.905468954859921e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>-8.905468954859921e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>-8.905468954859921e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>-8.905468954859921e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,16 +34784,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>146.7850892314815</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
@@ -35495,13 +35495,13 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>487.1420318003114</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
@@ -35662,7 +35662,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109114</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
         <v>350.4995841502048</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>146.7850892314815</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
@@ -35735,13 +35735,13 @@
         <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>88.01303278507413</v>
@@ -35884,7 +35884,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303338</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
@@ -35963,25 +35963,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>777.6835120841782</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415086</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>150.5754385879392</v>
@@ -36206,13 +36206,13 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>434.7644551367891</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>663.7376783068822</v>
       </c>
       <c r="P21" t="n">
         <v>207.0934149315247</v>
@@ -36221,7 +36221,7 @@
         <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36376,10 +36376,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,22 +36434,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>438.070502060531</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>334.8610358541607</v>
       </c>
       <c r="P24" t="n">
         <v>207.0934149315247</v>
@@ -36677,16 +36677,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>324.1236498972918</v>
       </c>
       <c r="P27" t="n">
         <v>207.0934149315247</v>
@@ -36695,7 +36695,7 @@
         <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36914,19 +36914,19 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O30" t="n">
-        <v>482.1033309642235</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
         <v>88.01303278507413</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>408.2698052695482</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>385.6919070110652</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>57.74822800113458</v>
       </c>
       <c r="K36" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
-        <v>482.1033309642235</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
         <v>88.01303278507413</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
@@ -37549,7 +37549,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
@@ -37786,7 +37786,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37859,19 +37859,19 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>536.1008625915819</v>
       </c>
       <c r="P42" t="n">
         <v>207.0934149315247</v>
@@ -38023,7 +38023,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38035,7 +38035,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
         <v>59.8253897034981</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>299.8843243654604</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>88.01303278507413</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3452439.472078586</v>
+        <v>3527969.141743391</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>139.3896612976076</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +676,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>85.94059021314987</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,13 +712,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -826,19 +828,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>46.62584874899822</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>15.91242278797893</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,19 +901,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -947,22 +949,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>62.71093001209227</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>88.18799940186527</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1057,7 +1059,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>35.91413898973455</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>125.8721928563319</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>317.2572105396886</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>268.8321801801047</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1333,31 +1335,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
-        <v>114.9503771951926</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>127.0044127072332</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896907</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113176</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274066</v>
+        <v>81.77913505274067</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>140.9824427800611</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>14.69115661517873</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051987</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>56.88838968181823</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>27.28566982380597</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1822,16 +1824,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710084</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274066</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051987</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498009</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2014,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>127.4321567831321</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>255.4853389885913</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2135,7 +2137,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>66.26783514703983</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,16 +2250,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2289,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>98.0781944519799</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>1.810113024882348</v>
       </c>
       <c r="E25" t="n">
-        <v>8.627084658457184</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2564,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,25 +2715,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>137.7522925837553</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>109.7997655438527</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2843,7 +2845,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2962,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>125.0009230777858</v>
       </c>
       <c r="W31" t="n">
-        <v>76.92371143670185</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274067</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U32" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498009</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="33">
@@ -3190,19 +3192,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>106.6322550687624</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -3247,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>101.0041688483414</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3283,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113175</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274074</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>59.7794577366496</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>3.416105766199916</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,22 +3477,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3554,7 +3556,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3661,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>133.5360696040803</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3670,13 +3672,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>112.7491951016478</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3715,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3740,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="42">
@@ -3895,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>73.72928644141938</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>117.525190330997</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3958,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4138,16 +4140,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>23.9968682569051</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>220.3866928557993</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1309.714918859356</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="C2" t="n">
-        <v>1309.714918859356</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>951.4492202526051</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>565.6609676543608</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>154.6750628647532</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>140.7516588033441</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>140.7516588033441</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4358,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X2" t="n">
-        <v>1309.714918859356</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="Y2" t="n">
-        <v>1309.714918859356</v>
+        <v>1469.273141255051</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417901</v>
@@ -4431,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>70.0161361516563</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="C4" t="n">
-        <v>70.0161361516563</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="D4" t="n">
-        <v>70.0161361516563</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="E4" t="n">
-        <v>70.0161361516563</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="F4" t="n">
-        <v>70.0161361516563</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="G4" t="n">
-        <v>70.0161361516563</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H4" t="n">
-        <v>70.0161361516563</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4512,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>290.8087152951864</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>290.8087152951864</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W4" t="n">
-        <v>290.8087152951864</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="X4" t="n">
-        <v>290.8087152951864</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="Y4" t="n">
-        <v>70.0161361516563</v>
+        <v>473.4444960005476</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1345.301239238533</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="C5" t="n">
-        <v>1345.301239238533</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D5" t="n">
-        <v>1345.301239238533</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4577,16 +4579,16 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4595,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2402.598540113298</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U5" t="n">
-        <v>2402.598540113298</v>
+        <v>2158.229459560338</v>
       </c>
       <c r="V5" t="n">
-        <v>2071.535652769727</v>
+        <v>2158.229459560338</v>
       </c>
       <c r="W5" t="n">
-        <v>1718.766997499613</v>
+        <v>2158.229459560338</v>
       </c>
       <c r="X5" t="n">
-        <v>1345.301239238533</v>
+        <v>1784.763701299258</v>
       </c>
       <c r="Y5" t="n">
-        <v>1345.301239238533</v>
+        <v>1394.624369323446</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.9958041606071</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4747,28 +4749,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>691.8520761359955</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>477.5636529541582</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>477.5636529541582</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>477.5636529541582</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084171</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y7" t="n">
-        <v>372.9958041606071</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1686.741202187451</v>
+        <v>764.236232399357</v>
       </c>
       <c r="C8" t="n">
-        <v>1317.778685247039</v>
+        <v>395.2737154589453</v>
       </c>
       <c r="D8" t="n">
-        <v>959.5129866402885</v>
+        <v>395.2737154589453</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>1914.44116270037</v>
       </c>
       <c r="X8" t="n">
-        <v>1958.288858935031</v>
+        <v>1540.975404439291</v>
       </c>
       <c r="Y8" t="n">
-        <v>1686.741202187451</v>
+        <v>1150.836072463479</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4874,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4881,25 +4883,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598707</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>361.80799380017</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>361.80799380017</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036446</v>
@@ -4969,43 +4971,43 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="R10" t="n">
-        <v>582.6005729437002</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="S10" t="n">
-        <v>582.6005729437002</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="T10" t="n">
-        <v>582.6005729437002</v>
+        <v>471.4038777286584</v>
       </c>
       <c r="U10" t="n">
-        <v>582.6005729437002</v>
+        <v>182.2302673832263</v>
       </c>
       <c r="V10" t="n">
-        <v>582.6005729437002</v>
+        <v>182.2302673832263</v>
       </c>
       <c r="W10" t="n">
-        <v>582.6005729437002</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X10" t="n">
-        <v>582.6005729437002</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>361.80799380017</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5033,16 +5035,16 @@
         <v>488.1932370805468</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5057,10 +5059,10 @@
         <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014293</v>
@@ -5118,25 +5120,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>242.5343297994525</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>391.6040140015124</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L12" t="n">
-        <v>638.3691419079764</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M12" t="n">
-        <v>1406.737288300438</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.599915964471</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>1912.313820009359</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>674.2349604684849</v>
+        <v>536.9315552689005</v>
       </c>
       <c r="C13" t="n">
-        <v>674.2349604684849</v>
+        <v>536.9315552689005</v>
       </c>
       <c r="D13" t="n">
-        <v>674.2349604684849</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684849</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705745</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1373.001614983184</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1373.001614983184</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U13" t="n">
-        <v>1083.872976196742</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="V13" t="n">
-        <v>1083.872976196742</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="W13" t="n">
-        <v>1083.872976196742</v>
+        <v>985.713685310448</v>
       </c>
       <c r="X13" t="n">
-        <v>855.8834252987247</v>
+        <v>757.7241344124307</v>
       </c>
       <c r="Y13" t="n">
-        <v>855.8834252987247</v>
+        <v>536.9315552689005</v>
       </c>
     </row>
     <row r="14">
@@ -5276,13 +5278,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5291,13 +5293,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014293</v>
@@ -5355,28 +5357,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>242.5343297994525</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>391.6040140015124</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L15" t="n">
-        <v>638.3691419079764</v>
+        <v>1088.787142923176</v>
       </c>
       <c r="M15" t="n">
-        <v>1406.737288300438</v>
+        <v>1396.107276203137</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.599915964471</v>
+        <v>1725.96990386717</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2005.509969085867</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>434.3900243991422</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C16" t="n">
-        <v>376.9270045185178</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D16" t="n">
-        <v>376.9270045185178</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E16" t="n">
-        <v>376.9270045185178</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
@@ -5443,7 +5445,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1471.354987907594</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1271.434977823146</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1271.434977823146</v>
       </c>
       <c r="U16" t="n">
-        <v>1098.712528333286</v>
+        <v>982.3063390367042</v>
       </c>
       <c r="V16" t="n">
-        <v>844.0280401273993</v>
+        <v>982.3063390367042</v>
       </c>
       <c r="W16" t="n">
-        <v>844.0280401273993</v>
+        <v>692.8891689997437</v>
       </c>
       <c r="X16" t="n">
-        <v>616.038489229382</v>
+        <v>464.8996181017263</v>
       </c>
       <c r="Y16" t="n">
-        <v>616.038489229382</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="17">
@@ -5495,19 +5497,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028587</v>
@@ -5516,16 +5518,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643324</v>
@@ -5534,7 +5536,7 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014293</v>
@@ -5552,7 +5554,7 @@
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>2500.819361250804</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>2649.889045452864</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L18" t="n">
-        <v>2896.654173359328</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M18" t="n">
-        <v>3203.974306639289</v>
+        <v>1333.825180851559</v>
       </c>
       <c r="N18" t="n">
-        <v>3973.880983602626</v>
+        <v>1663.687808515592</v>
       </c>
       <c r="O18" t="n">
-        <v>4253.421048821323</v>
+        <v>2005.509969085867</v>
       </c>
       <c r="P18" t="n">
-        <v>4773.72167055707</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014293</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>225.9364417462779</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>225.9364417462779</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>225.9364417462779</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>225.9364417462779</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>225.9364417462779</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028587</v>
@@ -5671,7 +5673,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
@@ -5680,7 +5682,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>964.135741824786</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U19" t="n">
-        <v>964.135741824786</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="V19" t="n">
-        <v>964.135741824786</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W19" t="n">
-        <v>674.7185717878253</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X19" t="n">
-        <v>446.729020889808</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.9364417462779</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5731,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5771,7 +5773,7 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014293</v>
@@ -5783,13 +5785,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>2500.819361250804</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>2649.889045452864</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L21" t="n">
-        <v>3263.786115209752</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M21" t="n">
-        <v>3571.106248489714</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N21" t="n">
-        <v>3900.968876153747</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O21" t="n">
-        <v>4558.06917767756</v>
+        <v>2302.237516093322</v>
       </c>
       <c r="P21" t="n">
-        <v>4763.09165845977</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>4850.224560916993</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4206.132591937266</v>
+        <v>542.438140992646</v>
       </c>
       <c r="C22" t="n">
-        <v>4037.196409009358</v>
+        <v>542.438140992646</v>
       </c>
       <c r="D22" t="n">
-        <v>4037.196409009358</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E22" t="n">
-        <v>3889.283315426965</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F22" t="n">
-        <v>3889.283315426965</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G22" t="n">
-        <v>3721.107993746786</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576119</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>4650.71058629129</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T22" t="n">
-        <v>4426.925171080796</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U22" t="n">
-        <v>4426.925171080796</v>
+        <v>898.7925182488389</v>
       </c>
       <c r="V22" t="n">
-        <v>4426.925171080796</v>
+        <v>898.7925182488389</v>
       </c>
       <c r="W22" t="n">
-        <v>4426.925171080796</v>
+        <v>609.3753482118782</v>
       </c>
       <c r="X22" t="n">
-        <v>4426.925171080796</v>
+        <v>609.3753482118782</v>
       </c>
       <c r="Y22" t="n">
-        <v>4206.132591937266</v>
+        <v>609.3753482118782</v>
       </c>
     </row>
     <row r="23">
@@ -5966,22 +5968,22 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028587</v>
@@ -5990,16 +5992,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6011,22 +6013,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>2375.989236263799</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>2525.058920465859</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L24" t="n">
-        <v>3138.955990222747</v>
+        <v>796.3635653766204</v>
       </c>
       <c r="M24" t="n">
-        <v>3907.324136615209</v>
+        <v>1564.731711769082</v>
       </c>
       <c r="N24" t="n">
-        <v>4237.186764279241</v>
+        <v>1894.594339433115</v>
       </c>
       <c r="O24" t="n">
-        <v>4568.69918977486</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>4773.72167055707</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>256.0479578003561</v>
+        <v>3927.22792978938</v>
       </c>
       <c r="C25" t="n">
-        <v>256.0479578003561</v>
+        <v>3758.291746861473</v>
       </c>
       <c r="D25" t="n">
-        <v>105.9313183880204</v>
+        <v>3756.463349866643</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>3756.463349866643</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>4660.934562929846</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>4437.149147719352</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>4148.02050893291</v>
       </c>
       <c r="V25" t="n">
-        <v>955.1031435655738</v>
+        <v>4148.02050893291</v>
       </c>
       <c r="W25" t="n">
-        <v>665.6859735286132</v>
+        <v>4148.02050893291</v>
       </c>
       <c r="X25" t="n">
-        <v>437.6964226305959</v>
+        <v>4148.02050893291</v>
       </c>
       <c r="Y25" t="n">
-        <v>437.6964226305959</v>
+        <v>3927.22792978938</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6212,61 +6214,61 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6291,40 +6293,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L27" t="n">
-        <v>901.674922584592</v>
+        <v>796.3635653766204</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.043068977054</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N27" t="n">
-        <v>1999.905696641086</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O27" t="n">
-        <v>2320.788110039405</v>
+        <v>2103.010087623275</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4206.132591937264</v>
+        <v>534.3905543375959</v>
       </c>
       <c r="C28" t="n">
-        <v>4037.196409009357</v>
+        <v>534.3905543375959</v>
       </c>
       <c r="D28" t="n">
-        <v>4037.196409009357</v>
+        <v>384.2739149252601</v>
       </c>
       <c r="E28" t="n">
-        <v>3889.283315426963</v>
+        <v>236.360821342867</v>
       </c>
       <c r="F28" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>4749.945718929593</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U28" t="n">
-        <v>4460.817080143151</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V28" t="n">
-        <v>4206.132591937264</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W28" t="n">
-        <v>4206.132591937264</v>
+        <v>755.183133481126</v>
       </c>
       <c r="X28" t="n">
-        <v>4206.132591937264</v>
+        <v>755.183133481126</v>
       </c>
       <c r="Y28" t="n">
-        <v>4206.132591937264</v>
+        <v>534.3905543375959</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,25 +6448,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6473,7 +6475,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6497,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6546,19 +6548,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M30" t="n">
-        <v>1302.911127126629</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4073.312626376942</v>
+        <v>991.0842369787848</v>
       </c>
       <c r="C31" t="n">
-        <v>3904.376443449035</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="D31" t="n">
-        <v>3904.376443449035</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E31" t="n">
-        <v>3756.463349866642</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F31" t="n">
-        <v>3609.573402368731</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G31" t="n">
-        <v>3609.573402368731</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4660.934562929845</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>4660.934562929845</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U31" t="n">
-        <v>4371.805924143403</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V31" t="n">
-        <v>4371.805924143403</v>
+        <v>1172.732701809025</v>
       </c>
       <c r="W31" t="n">
-        <v>4294.105205520472</v>
+        <v>1172.732701809025</v>
       </c>
       <c r="X31" t="n">
-        <v>4294.105205520472</v>
+        <v>1172.732701809025</v>
       </c>
       <c r="Y31" t="n">
-        <v>4073.312626376942</v>
+        <v>1172.732701809025</v>
       </c>
     </row>
     <row r="32">
@@ -6674,55 +6676,55 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6740,10 +6742,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>138.7081686256435</v>
@@ -6786,13 +6788,13 @@
         <v>901.674922584592</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.043068977054</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P33" t="n">
         <v>2536.440602918915</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>670.4097176447378</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6862,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6880,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V34" t="n">
-        <v>709.4512536188992</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W34" t="n">
-        <v>420.0340835819385</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="X34" t="n">
-        <v>318.0096706038159</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>820.5263570570736</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805468</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6959,19 +6961,19 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
@@ -6980,7 +6982,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>2391.668904819564</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>2540.738589021624</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L36" t="n">
-        <v>2787.503716928088</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M36" t="n">
-        <v>3094.823850208049</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N36" t="n">
-        <v>3899.2354284722</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O36" t="n">
-        <v>4568.699189774859</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>157.6003821033663</v>
+        <v>3892.733927312014</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>3892.733927312014</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T37" t="n">
-        <v>964.135741824786</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="U37" t="n">
-        <v>675.0071030383442</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="V37" t="n">
-        <v>675.0071030383442</v>
+        <v>4295.174971285784</v>
       </c>
       <c r="W37" t="n">
-        <v>385.5899330013836</v>
+        <v>4295.174971285784</v>
       </c>
       <c r="X37" t="n">
-        <v>157.6003821033663</v>
+        <v>4295.174971285784</v>
       </c>
       <c r="Y37" t="n">
-        <v>157.6003821033663</v>
+        <v>4074.382392142254</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7166,19 +7168,19 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7205,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7254,19 +7256,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>1163.495507227045</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1470.815640507006</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N39" t="n">
-        <v>1800.678268171039</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O39" t="n">
-        <v>2080.218333389736</v>
+        <v>2315.738453580939</v>
       </c>
       <c r="P39" t="n">
         <v>2536.440602918915</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>526.9050513325897</v>
+        <v>527.1935825831087</v>
       </c>
       <c r="C40" t="n">
-        <v>392.0201325405893</v>
+        <v>527.1935825831087</v>
       </c>
       <c r="D40" t="n">
-        <v>392.0201325405893</v>
+        <v>527.1935825831087</v>
       </c>
       <c r="E40" t="n">
-        <v>244.1070389581962</v>
+        <v>379.2804890007155</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>379.2804890007155</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>211.1051673205361</v>
       </c>
       <c r="H40" t="n">
         <v>97.21709146028584</v>
@@ -7363,19 +7365,19 @@
         <v>1298.996260473455</v>
       </c>
       <c r="U40" t="n">
-        <v>1298.996260473455</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V40" t="n">
-        <v>1044.311772267568</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W40" t="n">
-        <v>754.894602230607</v>
+        <v>755.183133481126</v>
       </c>
       <c r="X40" t="n">
-        <v>526.9050513325897</v>
+        <v>527.1935825831087</v>
       </c>
       <c r="Y40" t="n">
-        <v>526.9050513325897</v>
+        <v>527.1935825831087</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7409,13 +7411,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7454,7 +7456,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>2525.058920465858</v>
       </c>
       <c r="L42" t="n">
-        <v>1163.495507227045</v>
+        <v>3138.955990222747</v>
       </c>
       <c r="M42" t="n">
-        <v>1470.815640507006</v>
+        <v>3644.018355938592</v>
       </c>
       <c r="N42" t="n">
-        <v>1800.678268171039</v>
+        <v>3973.880983602625</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>4253.421048821322</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R42" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S42" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T42" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U42" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W42" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X42" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y42" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>714.6010158349783</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C43" t="n">
-        <v>545.6648329070714</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D43" t="n">
-        <v>395.5481934947356</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E43" t="n">
-        <v>247.6350999123426</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7591,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1424.442243849398</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1224.52223376495</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1224.52223376495</v>
+        <v>1380.203957092249</v>
       </c>
       <c r="U43" t="n">
-        <v>935.3935949785084</v>
+        <v>1091.075318305807</v>
       </c>
       <c r="V43" t="n">
-        <v>935.3935949785084</v>
+        <v>1091.075318305807</v>
       </c>
       <c r="W43" t="n">
-        <v>935.3935949785084</v>
+        <v>801.6581482688464</v>
       </c>
       <c r="X43" t="n">
-        <v>935.3935949785084</v>
+        <v>573.668597370829</v>
       </c>
       <c r="Y43" t="n">
-        <v>714.6010158349783</v>
+        <v>573.668597370829</v>
       </c>
     </row>
     <row r="44">
@@ -7634,13 +7636,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7673,10 +7675,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7725,22 +7727,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>167.8887746690278</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>316.9584588710876</v>
       </c>
       <c r="L45" t="n">
-        <v>709.4934589365139</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M45" t="n">
-        <v>1016.813592216476</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N45" t="n">
-        <v>1346.676219880508</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O45" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
         <v>2536.440602918915</v>
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>414.0663679705859</v>
+        <v>584.4452354807079</v>
       </c>
       <c r="C46" t="n">
-        <v>245.130185042679</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D46" t="n">
-        <v>245.130185042679</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7828,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1363.601906254167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1139.816491043673</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1139.816491043673</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>885.1320028377861</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W46" t="n">
-        <v>595.7148328008255</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X46" t="n">
-        <v>595.7148328008255</v>
+        <v>986.8862794544777</v>
       </c>
       <c r="Y46" t="n">
-        <v>595.7148328008255</v>
+        <v>766.0937003109476</v>
       </c>
     </row>
   </sheetData>
@@ -8055,16 +8057,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627882</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>104.8749102765748</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>213.2603911806619</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,16 +9005,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>104.8749102765748</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>295.3773510571265</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9027,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711655</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9246,16 +9248,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>444.4889386861653</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>62.91120742583706</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9264,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>381.3739760657741</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>29.47535963978166</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9656,7 +9658,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9717,10 +9719,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9729,7 +9731,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>52.49733361305249</v>
+        <v>158.8724419039329</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9738,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298014</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,28 +9956,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>41.75994765618367</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>20.63789864135373</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10194,22 +10196,22 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>360.5026862907255</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445217</v>
@@ -10434,16 +10436,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>52.49733361305226</v>
+        <v>199.7396287231153</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10662,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>15.8380490462279</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>182.0340742867946</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,22 +10904,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>253.7371603504737</v>
+        <v>15.83804904622852</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,22 +11141,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>199.7396287231148</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>253.7371603504737</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11303,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,16 +11375,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>29.47535963978211</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>50.6266194094361</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11391,7 +11393,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -23413,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>7.633030238151235</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>183.2296533684245</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>110.3584314168096</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>82.6786825799868</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -23710,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23902,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>39.0614116802455</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>30.75201340998601</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>113.5641450348975</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,25 +24177,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>99.84261553162335</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>146.80535999333</v>
       </c>
       <c r="E25" t="n">
-        <v>137.806877988112</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24412,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,25 +24603,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>7.668755439175897</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24651,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>111.7477955145366</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,19 +24894,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>127.1367202460422</v>
       </c>
       <c r="W31" t="n">
-        <v>209.5992868998891</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25078,19 +25080,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>39.80170757780672</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25135,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>124.7054865406958</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>107.4673633619782</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>145.1993672520125</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25324,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,22 +25365,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>33.71075149454751</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25558,13 +25560,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>36.16463326588834</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25603,13 +25605,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25783,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>36.23506596237341</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>104.0223707273922</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25846,13 +25848,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,16 +26028,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>173.9239417266982</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>5.322962533237813</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>698558.730471854</v>
+        <v>698558.7304718539</v>
       </c>
     </row>
     <row r="9">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>698558.7304718539</v>
+        <v>698558.730471854</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>698558.7304718539</v>
+        <v>698558.730471854</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>718411.5486312479</v>
+      </c>
+      <c r="C2" t="n">
         <v>718411.5486312478</v>
       </c>
-      <c r="C2" t="n">
-        <v>718411.5486312477</v>
-      </c>
       <c r="D2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="E2" t="n">
+        <v>684300.85454099</v>
+      </c>
+      <c r="F2" t="n">
         <v>684300.8545409901</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>684300.8545409903</v>
+      </c>
+      <c r="H2" t="n">
+        <v>684300.8545409907</v>
+      </c>
+      <c r="I2" t="n">
+        <v>684300.8545409901</v>
+      </c>
+      <c r="J2" t="n">
+        <v>684300.85454099</v>
+      </c>
+      <c r="K2" t="n">
+        <v>684300.8545409901</v>
+      </c>
+      <c r="L2" t="n">
+        <v>684300.85454099</v>
+      </c>
+      <c r="M2" t="n">
+        <v>684300.8545409901</v>
+      </c>
+      <c r="N2" t="n">
+        <v>684300.8545409907</v>
+      </c>
+      <c r="O2" t="n">
         <v>684300.8545409905</v>
       </c>
-      <c r="G2" t="n">
+      <c r="P2" t="n">
         <v>684300.8545409907</v>
-      </c>
-      <c r="H2" t="n">
-        <v>684300.8545409902</v>
-      </c>
-      <c r="I2" t="n">
-        <v>684300.8545409907</v>
-      </c>
-      <c r="J2" t="n">
-        <v>684300.8545409904</v>
-      </c>
-      <c r="K2" t="n">
-        <v>684300.8545409902</v>
-      </c>
-      <c r="L2" t="n">
-        <v>684300.8545409903</v>
-      </c>
-      <c r="M2" t="n">
-        <v>684300.8545409902</v>
-      </c>
-      <c r="N2" t="n">
-        <v>684300.8545409905</v>
-      </c>
-      <c r="O2" t="n">
-        <v>684300.8545409904</v>
-      </c>
-      <c r="P2" t="n">
-        <v>684300.8545409905</v>
       </c>
     </row>
     <row r="3">
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>6.002665031701325e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>5.145141455743993e-11</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26430,22 +26432,22 @@
         <v>15045.66962143912</v>
       </c>
       <c r="G4" t="n">
+        <v>15045.66962143911</v>
+      </c>
+      <c r="H4" t="n">
         <v>15045.6696214391</v>
-      </c>
-      <c r="H4" t="n">
-        <v>15045.66962143909</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="K4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143914</v>
       </c>
       <c r="M4" t="n">
         <v>15045.6696214391</v>
@@ -26470,34 +26472,34 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26509,7 +26511,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-111190.3668979288</v>
+        <v>-111190.3668979287</v>
       </c>
       <c r="C6" t="n">
         <v>478777.5123166157</v>
       </c>
       <c r="D6" t="n">
-        <v>478777.5123166157</v>
+        <v>478777.5123166158</v>
       </c>
       <c r="E6" t="n">
-        <v>52107.82249393803</v>
+        <v>52107.8224939379</v>
       </c>
       <c r="F6" t="n">
+        <v>577267.8589708344</v>
+      </c>
+      <c r="G6" t="n">
+        <v>577267.8589708346</v>
+      </c>
+      <c r="H6" t="n">
+        <v>577267.8589708351</v>
+      </c>
+      <c r="I6" t="n">
+        <v>577267.8589708344</v>
+      </c>
+      <c r="J6" t="n">
+        <v>400844.6397782415</v>
+      </c>
+      <c r="K6" t="n">
+        <v>577267.8589708343</v>
+      </c>
+      <c r="L6" t="n">
+        <v>577267.8589708342</v>
+      </c>
+      <c r="M6" t="n">
+        <v>442466.8437369975</v>
+      </c>
+      <c r="N6" t="n">
+        <v>577267.858970835</v>
+      </c>
+      <c r="O6" t="n">
         <v>577267.8589708349</v>
       </c>
-      <c r="G6" t="n">
+      <c r="P6" t="n">
         <v>577267.858970835</v>
-      </c>
-      <c r="H6" t="n">
-        <v>577267.8589708345</v>
-      </c>
-      <c r="I6" t="n">
-        <v>577267.858970835</v>
-      </c>
-      <c r="J6" t="n">
-        <v>400844.6397782417</v>
-      </c>
-      <c r="K6" t="n">
-        <v>577267.8589708345</v>
-      </c>
-      <c r="L6" t="n">
-        <v>577267.8589708346</v>
-      </c>
-      <c r="M6" t="n">
-        <v>442466.8437369973</v>
-      </c>
-      <c r="N6" t="n">
-        <v>577267.8589708349</v>
-      </c>
-      <c r="O6" t="n">
-        <v>577267.8589708348</v>
-      </c>
-      <c r="P6" t="n">
-        <v>577267.8589708349</v>
       </c>
     </row>
   </sheetData>
@@ -26692,13 +26694,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26713,7 +26715,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26741,25 +26743,25 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
@@ -26790,7 +26792,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545557</v>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26932,10 +26934,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545551</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>243.344180365873</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.99072603171138</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27546,19 +27548,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>98.79519927393302</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>119.0531990043593</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,10 +27593,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,19 +27621,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>153.7373903455655</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>163.036168106424</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27779,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27819,10 +27821,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>110.7510529904233</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,16 +27833,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>92.71246049576293</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>64.67315953257315</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>117.4057584759489</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28016,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,13 +28028,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>31.7148147849652</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>159.5185856293578</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28345,7 +28347,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28384,16 +28386,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28564,7 +28566,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28612,13 +28614,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28627,7 +28629,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -29746,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
     </row>
     <row r="33">
@@ -31516,10 +31518,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31528,34 +31530,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,10 +31752,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,37 +31764,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31868,7 +31870,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,7 +31992,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,31 +32001,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32072,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32151,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,7 +32165,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32175,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32309,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32388,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32412,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34775,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338903</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35033,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,22 +35178,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307148</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>146.7850892314815</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>420.3538061121867</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,25 +35652,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>146.7850892314815</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>544.6350560131509</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980129</v>
@@ -35741,13 +35743,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303338</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35965,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>777.6835120841782</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>345.2749096669453</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>663.7376783068822</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>236.5687745713064</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
         <v>776.1294408004662</v>
@@ -36449,13 +36451,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>334.8610358541607</v>
+        <v>441.2361441450411</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>324.1236498972918</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>227.7313135728785</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36914,22 +36916,22 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>609.7603912467498</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37154,16 +37156,16 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>385.6919070110652</v>
+        <v>532.9342021211282</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>88.01303278507413</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>57.74822800113458</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>492.4584513372609</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,22 +37624,22 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>460.8305752819984</v>
+        <v>222.9314639777532</v>
       </c>
       <c r="Q39" t="n">
         <v>88.01303278507413</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,22 +37861,22 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>510.1640057735812</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>536.1008625915819</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>88.01303278507413</v>
@@ -38023,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,16 +38095,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>71.3855385946888</v>
       </c>
       <c r="K45" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>299.8843243654604</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
@@ -38111,7 +38113,7 @@
         <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
         <v>88.01303278507413</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3520952.12685168</v>
+        <v>3525891.389700712</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800624</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -670,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>307.7676307244759</v>
+        <v>38.32326053493003</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D4" t="n">
-        <v>101.780687729549</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>215.6411024678878</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>129.1935566495323</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1056,13 +1056,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1071,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>77.3935869930707</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>157.7061603512636</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,7 +1150,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1183,13 +1183,13 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>138.2970331133479</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1305,16 +1305,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>52.10844059186253</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>28.51033041214347</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274067</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498022</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656055</v>
       </c>
     </row>
     <row r="12">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -1584,19 +1584,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>57.56452900498805</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>33.3514698018592</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498037</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,10 +1703,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T15" t="n">
         <v>192.9654699154601</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1821,16 +1821,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>122.9373037050093</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>174.4582143292764</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896938</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T18" t="n">
         <v>192.9654699154601</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>5.562624396425339</v>
       </c>
       <c r="T19" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710098</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2177,10 +2177,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H21" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>134.7660731567842</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056523</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2414,10 +2414,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H24" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2478,10 +2478,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>54.76523371350055</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>204.1291651532053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2651,10 +2651,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H27" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2715,16 +2715,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2769,16 +2769,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>224.8952567231529</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>129.4106056624395</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2888,10 +2888,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H30" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T30" t="n">
         <v>192.9654699154601</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>164.5836167086046</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385047</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3125,10 +3125,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H33" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T33" t="n">
         <v>192.9654699154601</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>115.5269768002176</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385028</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174145</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3362,10 +3362,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H36" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T36" t="n">
         <v>192.9654699154601</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>115.5269768002185</v>
       </c>
       <c r="T37" t="n">
-        <v>205.1666956151579</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3599,10 +3599,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H39" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T39" t="n">
         <v>192.9654699154601</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>150.5020202291684</v>
+        <v>115.5269768002185</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3836,10 +3836,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H42" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T42" t="n">
         <v>192.9654699154601</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750044</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4073,10 +4073,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H45" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T45" t="n">
         <v>192.9654699154601</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>237.3965091869257</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>3.633341602776479</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>936.2491605982757</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="C2" t="n">
-        <v>936.2491605982757</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="D2" t="n">
-        <v>936.2491605982757</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="E2" t="n">
-        <v>936.2491605982757</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="Y2" t="n">
-        <v>936.2491605982757</v>
+        <v>991.2778500677821</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>325.6879402326643</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>156.7517573047574</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>507.3364050629041</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1254.177966138804</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="C5" t="n">
-        <v>1254.177966138804</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D5" t="n">
-        <v>1254.177966138804</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>1254.177966138804</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>843.1920613491968</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>425.2282532473837</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2566.650548947988</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2312.888763586079</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.54646147304</v>
+        <v>1981.825876242509</v>
       </c>
       <c r="W5" t="n">
-        <v>1640.777806202926</v>
+        <v>1629.057220972395</v>
       </c>
       <c r="X5" t="n">
-        <v>1640.777806202926</v>
+        <v>1255.591462711315</v>
       </c>
       <c r="Y5" t="n">
-        <v>1640.777806202926</v>
+        <v>865.4521307355029</v>
       </c>
     </row>
     <row r="6">
@@ -4704,25 +4704,25 @@
         <v>325.6879402326643</v>
       </c>
       <c r="C7" t="n">
-        <v>156.7517573047574</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="D7" t="n">
-        <v>156.7517573047574</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="E7" t="n">
-        <v>156.7517573047574</v>
+        <v>177.7748466502712</v>
       </c>
       <c r="F7" t="n">
-        <v>156.7517573047574</v>
+        <v>177.7748466502712</v>
       </c>
       <c r="G7" t="n">
-        <v>156.7517573047574</v>
+        <v>177.7748466502712</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>177.7748466502712</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1394.624369323446</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="C8" t="n">
-        <v>1394.624369323446</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>1522.852542550656</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4804,19 +4804,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2502.42642870695</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2502.42642870695</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2502.42642870695</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2171.363541363379</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>2171.363541363379</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X8" t="n">
-        <v>2171.363541363379</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="Y8" t="n">
-        <v>1781.224209387568</v>
+        <v>1881.118241157406</v>
       </c>
     </row>
     <row r="9">
@@ -4895,13 +4895,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064342</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D10" t="n">
-        <v>728.1289842064342</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="E10" t="n">
-        <v>580.2158906240411</v>
+        <v>229.6312428658945</v>
       </c>
       <c r="F10" t="n">
-        <v>433.3259431261307</v>
+        <v>82.74129536798412</v>
       </c>
       <c r="G10" t="n">
-        <v>264.3261428644631</v>
+        <v>82.74129536798412</v>
       </c>
       <c r="H10" t="n">
-        <v>106.5777702969933</v>
+        <v>82.74129536798412</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>82.74129536798412</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -5032,7 +5032,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5041,19 +5041,19 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643324</v>
@@ -5071,22 +5071,22 @@
         <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5123,22 +5123,22 @@
         <v>138.7081686256436</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277036</v>
+        <v>549.5984374701563</v>
       </c>
       <c r="L12" t="n">
-        <v>901.6749225845924</v>
+        <v>796.3635653766205</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.043068977054</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N12" t="n">
-        <v>1999.905696641087</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2103.010087623275</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.210845262961</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U13" t="n">
-        <v>1075.210845262961</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V13" t="n">
-        <v>1017.064856369034</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="W13" t="n">
-        <v>727.647686332073</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="X13" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y13" t="n">
-        <v>278.8655562905256</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5266,64 +5266,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231266</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.97260014187</v>
       </c>
       <c r="U14" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K15" t="n">
-        <v>412.607977814708</v>
+        <v>549.5984374701565</v>
       </c>
       <c r="L15" t="n">
-        <v>659.3731057211719</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M15" t="n">
-        <v>966.6932390011334</v>
+        <v>1470.815640507007</v>
       </c>
       <c r="N15" t="n">
-        <v>1296.555866665166</v>
+        <v>1800.67826817104</v>
       </c>
       <c r="O15" t="n">
-        <v>1966.019627967825</v>
+        <v>2080.218333389737</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>560.1954542207687</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="C16" t="n">
-        <v>560.1954542207687</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D16" t="n">
-        <v>560.1954542207687</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E16" t="n">
         <v>412.2823606383756</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="U16" t="n">
-        <v>1387.841167119728</v>
+        <v>1098.712528333287</v>
       </c>
       <c r="V16" t="n">
-        <v>1133.156678913841</v>
+        <v>1098.712528333287</v>
       </c>
       <c r="W16" t="n">
-        <v>1008.977584262316</v>
+        <v>809.2953582963264</v>
       </c>
       <c r="X16" t="n">
-        <v>780.9880333642989</v>
+        <v>633.0749397819058</v>
       </c>
       <c r="Y16" t="n">
-        <v>560.1954542207687</v>
+        <v>412.2823606383756</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550605</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610194</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155913</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5512,55 +5512,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823794</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231266</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.97260014187</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465304</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121733</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851619</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590539</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614727</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L18" t="n">
-        <v>563.7235867775516</v>
+        <v>921.1936903636254</v>
       </c>
       <c r="M18" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1158.436939387593</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011508</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952639</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>325.2066423583033</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550605</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,67 +5737,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231266</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.97260014187</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465304</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121733</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851619</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590539</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614727</v>
       </c>
     </row>
     <row r="21">
@@ -5828,25 +5828,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571612</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636255</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526318</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>868.4856756861153</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="C22" t="n">
-        <v>699.5494927582084</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="D22" t="n">
-        <v>549.4328533458727</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="E22" t="n">
-        <v>401.5197597634796</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="F22" t="n">
-        <v>401.5197597634796</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="G22" t="n">
-        <v>233.3444380833002</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473456</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765196</v>
       </c>
       <c r="V22" t="n">
-        <v>1498.916270557902</v>
+        <v>531.3977182706327</v>
       </c>
       <c r="W22" t="n">
-        <v>1498.916270557902</v>
+        <v>241.9805482336721</v>
       </c>
       <c r="X22" t="n">
-        <v>1270.926719659885</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="Y22" t="n">
-        <v>1050.134140516355</v>
+        <v>97.2170914602859</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028591</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="24">
@@ -6065,25 +6065,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571612</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636255</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526318</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>416.2699138005286</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1443.597852665479</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1443.597852665479</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765186</v>
+        <v>1154.469213879037</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706318</v>
+        <v>1154.469213879037</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>865.052043842076</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>637.0624929440587</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>416.2699138005286</v>
       </c>
     </row>
     <row r="26">
@@ -6217,37 +6217,37 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6293,34 +6293,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571612</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636255</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526318</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028584</v>
@@ -6384,16 +6384,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V28" t="n">
-        <v>1244.231782352015</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W28" t="n">
-        <v>1244.231782352015</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X28" t="n">
-        <v>1113.513998854602</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y28" t="n">
-        <v>892.7214197110717</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="29">
@@ -6451,43 +6451,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6530,34 +6530,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571612</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636255</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526318</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473456</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1132.750182990017</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011507</v>
+        <v>1132.750182990017</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952638</v>
+        <v>878.0656947841297</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>878.0656947841297</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028587</v>
+        <v>650.0761438861124</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028587</v>
+        <v>429.2835647425823</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6691,61 +6691,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231266</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6776,25 +6776,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571612</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636255</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526318</v>
       </c>
       <c r="P33" t="n">
         <v>2317.834075963124</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
         <v>1382.222354598087</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>1158.436939387593</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011508</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952639</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>325.2066423583033</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6928,22 +6928,22 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6952,37 +6952,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7004,7 +7004,7 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
@@ -7013,25 +7013,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571612</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636255</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526318</v>
       </c>
       <c r="P36" t="n">
         <v>2317.834075963124</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>565.9270610048577</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C37" t="n">
-        <v>565.9270610048577</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D37" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E37" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F37" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T37" t="n">
-        <v>1291.677184077945</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>1291.677184077945</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V37" t="n">
-        <v>1036.992695872058</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W37" t="n">
-        <v>747.5755258350974</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>747.5755258350974</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y37" t="n">
-        <v>747.5755258350974</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7165,61 +7165,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7241,34 +7241,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571612</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636255</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526318</v>
       </c>
       <c r="P39" t="n">
         <v>2317.834075963124</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
         <v>97.21709146028587</v>
@@ -7332,16 +7332,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1235.818924464002</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T40" t="n">
-        <v>1235.818924464002</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>946.6902856775603</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>946.6902856775603</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
-        <v>657.2731156405996</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>429.2835647425823</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>429.2835647425823</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155897</v>
       </c>
       <c r="G41" t="n">
         <v>488.1932370805469</v>
@@ -7408,22 +7408,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7435,28 +7435,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7478,34 +7478,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571612</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636255</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526318</v>
       </c>
       <c r="P42" t="n">
         <v>2317.834075963124</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473456</v>
       </c>
       <c r="T43" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W43" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7636,43 +7636,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7715,34 +7715,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571612</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636255</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526318</v>
       </c>
       <c r="P45" t="n">
         <v>2317.834075963124</v>
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473456</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U46" t="n">
-        <v>986.0022165609664</v>
+        <v>835.416391538794</v>
       </c>
       <c r="V46" t="n">
-        <v>731.3177283550796</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W46" t="n">
-        <v>727.647686332073</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X46" t="n">
-        <v>499.6581354340557</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,25 +8771,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>52.49733361305141</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>20.63789864135373</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445214</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>159.0121003135249</v>
+        <v>253.7371603504727</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>29.47535963978208</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776738</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776738</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.51353349283</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776738</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298005</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776738</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208051</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208051</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928309</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208051</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928309</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208051</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928336</v>
+        <v>449.51353349283</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208051</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>194.5731143188399</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>192.358185587178</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23661,7 +23661,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23709,16 +23709,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>163.5856946315817</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>51.25144105976071</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>192.3581855871779</v>
       </c>
       <c r="T19" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>14.14775521075197</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338483</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24366,10 +24366,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>143.1555762701027</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -24657,16 +24657,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>61.34209567542442</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>96.29904972659767</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24855,7 +24855,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>56.96394434978467</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S34" t="n">
-        <v>82.39383318338567</v>
+        <v>82.39383318338497</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338474</v>
       </c>
       <c r="T37" t="n">
-        <v>16.38086544323139</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25566,7 +25566,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S40" t="n">
-        <v>47.41878975443484</v>
+        <v>82.39383318338474</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S43" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>82.3938331833848</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>48.84084321165165</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>282.8896567338145</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>698558.7304718539</v>
+        <v>698558.730471854</v>
       </c>
     </row>
     <row r="15">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>718411.5486312478</v>
+      </c>
+      <c r="C2" t="n">
+        <v>718411.5486312475</v>
+      </c>
+      <c r="D2" t="n">
         <v>718411.5486312479</v>
       </c>
-      <c r="C2" t="n">
-        <v>718411.5486312477</v>
-      </c>
-      <c r="D2" t="n">
-        <v>718411.5486312477</v>
-      </c>
       <c r="E2" t="n">
+        <v>684300.8545409905</v>
+      </c>
+      <c r="F2" t="n">
+        <v>684300.8545409904</v>
+      </c>
+      <c r="G2" t="n">
         <v>684300.8545409902</v>
       </c>
-      <c r="F2" t="n">
-        <v>684300.8545409901</v>
-      </c>
-      <c r="G2" t="n">
-        <v>684300.8545409903</v>
-      </c>
       <c r="H2" t="n">
-        <v>684300.85454099</v>
+        <v>684300.8545409904</v>
       </c>
       <c r="I2" t="n">
         <v>684300.8545409902</v>
@@ -26340,22 +26340,22 @@
         <v>684300.8545409903</v>
       </c>
       <c r="K2" t="n">
-        <v>684300.8545409904</v>
+        <v>684300.85454099</v>
       </c>
       <c r="L2" t="n">
+        <v>684300.8545409902</v>
+      </c>
+      <c r="M2" t="n">
+        <v>684300.8545409902</v>
+      </c>
+      <c r="N2" t="n">
         <v>684300.8545409903</v>
       </c>
-      <c r="M2" t="n">
-        <v>684300.8545409904</v>
-      </c>
-      <c r="N2" t="n">
-        <v>684300.8545409904</v>
-      </c>
       <c r="O2" t="n">
-        <v>684300.8545409905</v>
+        <v>684300.8545409902</v>
       </c>
       <c r="P2" t="n">
-        <v>684300.8545409903</v>
+        <v>684300.8545409901</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768965</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.726386926748091e-10</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26426,40 +26426,40 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
+        <v>15045.66962143904</v>
+      </c>
+      <c r="F4" t="n">
+        <v>15045.66962143897</v>
+      </c>
+      <c r="G4" t="n">
+        <v>15045.66962143898</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15045.669621439</v>
+      </c>
+      <c r="I4" t="n">
+        <v>15045.66962143909</v>
+      </c>
+      <c r="J4" t="n">
+        <v>15045.66962143908</v>
+      </c>
+      <c r="K4" t="n">
+        <v>15045.66962143908</v>
+      </c>
+      <c r="L4" t="n">
+        <v>15045.66962143897</v>
+      </c>
+      <c r="M4" t="n">
         <v>15045.66962143903</v>
       </c>
-      <c r="F4" t="n">
-        <v>15045.6696214391</v>
-      </c>
-      <c r="G4" t="n">
-        <v>15045.6696214391</v>
-      </c>
-      <c r="H4" t="n">
-        <v>15045.6696214391</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15045.6696214391</v>
-      </c>
-      <c r="J4" t="n">
-        <v>15045.6696214391</v>
-      </c>
-      <c r="K4" t="n">
-        <v>15045.6696214391</v>
-      </c>
-      <c r="L4" t="n">
-        <v>15045.6696214391</v>
-      </c>
-      <c r="M4" t="n">
-        <v>15045.66962143906</v>
-      </c>
       <c r="N4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143904</v>
       </c>
       <c r="O4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="P4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143908</v>
       </c>
     </row>
     <row r="5">
@@ -26481,34 +26481,34 @@
         <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871668</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871668</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871668</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871668</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871668</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-111190.3668979286</v>
+        <v>-111190.3668979288</v>
       </c>
       <c r="C6" t="n">
-        <v>478777.5123166157</v>
+        <v>478777.5123166154</v>
       </c>
       <c r="D6" t="n">
-        <v>478777.5123166157</v>
+        <v>478777.5123166159</v>
       </c>
       <c r="E6" t="n">
-        <v>51133.23123421647</v>
+        <v>52010.36336796619</v>
       </c>
       <c r="F6" t="n">
-        <v>576293.2677111132</v>
+        <v>577170.3998448624</v>
       </c>
       <c r="G6" t="n">
-        <v>576293.2677111127</v>
+        <v>577170.3998448624</v>
       </c>
       <c r="H6" t="n">
-        <v>576293.2677111126</v>
+        <v>577170.3998448626</v>
       </c>
       <c r="I6" t="n">
-        <v>576293.2677111129</v>
+        <v>577170.3998448623</v>
       </c>
       <c r="J6" t="n">
-        <v>399870.0485185201</v>
+        <v>400747.1806522697</v>
       </c>
       <c r="K6" t="n">
-        <v>576293.2677111131</v>
+        <v>577170.3998448622</v>
       </c>
       <c r="L6" t="n">
-        <v>576293.267711113</v>
+        <v>577170.3998448623</v>
       </c>
       <c r="M6" t="n">
-        <v>441492.2524772759</v>
+        <v>442369.3846110251</v>
       </c>
       <c r="N6" t="n">
-        <v>576293.2677111131</v>
+        <v>577170.3998448625</v>
       </c>
       <c r="O6" t="n">
-        <v>576293.2677111132</v>
+        <v>577170.3998448624</v>
       </c>
       <c r="P6" t="n">
-        <v>576293.267711113</v>
+        <v>577170.3998448623</v>
       </c>
     </row>
   </sheetData>
@@ -26724,10 +26724,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.453953996543147e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>5.453953996543147e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26749,37 +26749,37 @@
         <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541008</v>
       </c>
     </row>
     <row r="4">
@@ -26801,16 +26801,16 @@
         <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26819,10 +26819,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>5.453953996543147e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26971,10 +26971,10 @@
         <v>452.6387412370139</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545549</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="M4" t="n">
         <v>540.9263704990177</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>5.453953996543147e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27390,13 +27390,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>99.10841501723559</v>
+        <v>368.5527852067814</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D4" t="n">
-        <v>46.83478528866331</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>108.2816702964694</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>87.25476370812552</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,13 +27776,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27791,13 +27791,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>54.3902011122461</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>57.57203479926753</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27861,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>224.2242097209982</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>36.11867969562363</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28025,16 +28025,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>82.85718120047571</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>16.68962877639353</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-5.453953996543147e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-5.453953996543147e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-5.453953996543147e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-5.453953996543147e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.453953996543147e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-5.453953996543147e-14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28146,7 +28146,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-1.198773607079383e-12</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28158,7 +28158,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-1.364242052659392e-12</v>
       </c>
     </row>
     <row r="12">
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-2.728484105318785e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28578,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-2.387423592153937e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28803,7 +28803,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-1.885311307980572e-12</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29802,7 +29802,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-12</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -30039,7 +30039,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30048,7 +30048,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30276,7 +30276,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>-1.051603248924948e-12</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,43 +32311,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J22" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J25" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J28" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J31" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J34" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J37" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J40" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J43" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T44" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J46" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P46" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35263,7 +35263,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594837</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980131</v>
       </c>
       <c r="O12" t="n">
-        <v>334.8610358541597</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>227.7313135728785</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490677</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.040675600518</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P15" t="n">
-        <v>366.1055152450495</v>
+        <v>460.8305752819975</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507424</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.040675600518</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091987</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.040675600518</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091987</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221095</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.040675600518</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091987</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.040675600518</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091987</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.040675600518</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>484.76521155233</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686871</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.040675600518</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>484.76521155233</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686871</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221104</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.040675600518</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>484.76521155233</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686871</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221104</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.040675600518</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>484.76521155233</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686871</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221095</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.040675600518</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>484.76521155233</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686871</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
